--- a/Wyniki 3/S1-GraphQL — jedno pole.xlsx
+++ b/Wyniki 3/S1-GraphQL — jedno pole.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FBEDE1-1A09-409E-9AC7-93DDE0635C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C4644-F51A-40B6-B264-D8525F0CB85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="49">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -101,19 +101,79 @@
     <t>502,4 µs</t>
   </si>
   <si>
-    <t>656 µs</t>
-  </si>
-  <si>
-    <t>649,1 µs</t>
-  </si>
-  <si>
-    <t>504,2 µs</t>
-  </si>
-  <si>
     <t>Pobieranie GraphQL - 500 rekordów</t>
   </si>
   <si>
-    <t>506,7 µs</t>
+    <t>503,49 µs</t>
+  </si>
+  <si>
+    <t>503,6 µs</t>
+  </si>
+  <si>
+    <t>183MB</t>
+  </si>
+  <si>
+    <t>26MB</t>
+  </si>
+  <si>
+    <t>1,8GB</t>
+  </si>
+  <si>
+    <t>263MB</t>
+  </si>
+  <si>
+    <t>2,3GB</t>
+  </si>
+  <si>
+    <t>326MB</t>
+  </si>
+  <si>
+    <t>327MB</t>
+  </si>
+  <si>
+    <t>325MB</t>
+  </si>
+  <si>
+    <t>508 µs</t>
+  </si>
+  <si>
+    <t>2,8GB</t>
+  </si>
+  <si>
+    <t>89MB</t>
+  </si>
+  <si>
+    <t>504,8 µs</t>
+  </si>
+  <si>
+    <t>2,7GB</t>
+  </si>
+  <si>
+    <t>88MB</t>
+  </si>
+  <si>
+    <t>381,2 µs</t>
+  </si>
+  <si>
+    <t>411,9 µs</t>
+  </si>
+  <si>
+    <t>325,9 µs</t>
+  </si>
+  <si>
+    <t>820MB</t>
+  </si>
+  <si>
+    <t>375,9 µs</t>
+  </si>
+  <si>
+    <t>310,3 µs</t>
+  </si>
+  <si>
+    <t>777MB</t>
+  </si>
+  <si>
+    <t>722MB</t>
   </si>
 </sst>
 </file>
@@ -170,13 +230,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,7 +531,7 @@
   <dimension ref="E7:P38"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,13 +541,14 @@
   </cols>
   <sheetData>
     <row r="7" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
@@ -501,17 +566,29 @@
       <c r="I8" s="1">
         <v>3</v>
       </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="G9" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.44</v>
+      </c>
       <c r="N9" s="1">
         <v>1.57</v>
       </c>
@@ -523,13 +600,22 @@
       </c>
     </row>
     <row r="10" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E10" s="3"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
       <c r="N10" s="1">
         <v>0</v>
       </c>
@@ -541,13 +627,22 @@
       </c>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E11" s="3"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="G11" s="1">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>143.24</v>
+      </c>
+      <c r="I11" s="1">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="J11" s="3">
+        <v>135.36000000000001</v>
+      </c>
       <c r="N11" s="1">
         <v>141.24</v>
       </c>
@@ -559,13 +654,22 @@
       </c>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E12" s="3"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="G12" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2.21</v>
+      </c>
       <c r="N12" s="1">
         <v>2.58</v>
       </c>
@@ -577,13 +681,22 @@
       </c>
     </row>
     <row r="13" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E13" s="3"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="G13" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2.57</v>
+      </c>
       <c r="N13" s="1">
         <v>3.11</v>
       </c>
@@ -595,13 +708,22 @@
       </c>
     </row>
     <row r="14" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E14" s="3"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="G14" s="1">
+        <v>83960</v>
+      </c>
+      <c r="H14" s="1">
+        <v>83956</v>
+      </c>
+      <c r="I14" s="1">
+        <v>83947</v>
+      </c>
+      <c r="J14" s="3">
+        <v>83957</v>
+      </c>
       <c r="N14" s="1">
         <v>83944</v>
       </c>
@@ -613,13 +735,22 @@
       </c>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E15" s="3"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="H15" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="I15" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="J15" s="3">
+        <v>960.9</v>
+      </c>
       <c r="N15" s="1">
         <v>960.9</v>
       </c>
@@ -631,13 +762,22 @@
       </c>
     </row>
     <row r="16" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E16" s="3"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="G16" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>87.38</v>
+      </c>
+      <c r="I16" s="1">
+        <v>87.36</v>
+      </c>
+      <c r="J16" s="3">
+        <v>87.38</v>
+      </c>
       <c r="N16" s="1">
         <v>87.36</v>
       </c>
@@ -649,13 +789,22 @@
       </c>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E17" s="3"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="G17" s="1">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1">
+        <v>25</v>
+      </c>
+      <c r="J17" s="3">
+        <v>25</v>
+      </c>
       <c r="N17" s="1">
         <v>55</v>
       </c>
@@ -667,13 +816,22 @@
       </c>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E18" s="3"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="G18" s="1">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1">
+        <v>23</v>
+      </c>
+      <c r="I18" s="1">
+        <v>23</v>
+      </c>
+      <c r="J18" s="3">
+        <v>23</v>
+      </c>
       <c r="N18" s="1">
         <v>48</v>
       </c>
@@ -685,15 +843,24 @@
       </c>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E19" s="4">
+      <c r="E19" s="6">
         <v>1000</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="G19" s="4">
+        <v>1.43</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1.24</v>
+      </c>
       <c r="N19" s="2">
         <v>1.21</v>
       </c>
@@ -705,13 +872,22 @@
       </c>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E20" s="4"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
       <c r="N20" s="2">
         <v>0</v>
       </c>
@@ -723,13 +899,22 @@
       </c>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E21" s="4"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="G21" s="4">
+        <v>150</v>
+      </c>
+      <c r="H21" s="4">
+        <v>142.88</v>
+      </c>
+      <c r="I21" s="4">
+        <v>156.18</v>
+      </c>
+      <c r="J21" s="4">
+        <v>142.11000000000001</v>
+      </c>
       <c r="N21" s="2">
         <v>141.66</v>
       </c>
@@ -741,13 +926,22 @@
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E22" s="4"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="G22" s="4">
+        <v>2.57</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2.21</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="J22" s="4">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="N22" s="2">
         <v>2.09</v>
       </c>
@@ -759,13 +953,22 @@
       </c>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E23" s="4"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="G23" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="H23" s="4">
+        <v>3.07</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2.23</v>
+      </c>
+      <c r="J23" s="4">
+        <v>3.08</v>
+      </c>
       <c r="N23" s="2">
         <v>2.77</v>
       </c>
@@ -777,13 +980,22 @@
       </c>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E24" s="4"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="G24" s="4">
+        <v>839097</v>
+      </c>
+      <c r="H24" s="4">
+        <v>839138</v>
+      </c>
+      <c r="I24" s="4">
+        <v>839376</v>
+      </c>
+      <c r="J24" s="4">
+        <v>939243</v>
+      </c>
       <c r="N24" s="2">
         <v>839314</v>
       </c>
@@ -795,13 +1007,22 @@
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E25" s="4"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="G25" s="4">
+        <v>960.8</v>
+      </c>
+      <c r="H25" s="4">
+        <v>960.6</v>
+      </c>
+      <c r="I25" s="4">
+        <v>960.6</v>
+      </c>
+      <c r="J25" s="4">
+        <v>960.5</v>
+      </c>
       <c r="N25" s="2">
         <v>960.6</v>
       </c>
@@ -813,13 +1034,22 @@
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E26" s="4"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="G26" s="4">
+        <v>873.32</v>
+      </c>
+      <c r="H26" s="4">
+        <v>873.58</v>
+      </c>
+      <c r="I26" s="4">
+        <v>873.8</v>
+      </c>
+      <c r="J26" s="4">
+        <v>973.78</v>
+      </c>
       <c r="N26" s="2">
         <v>873.74</v>
       </c>
@@ -831,13 +1061,22 @@
       </c>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E27" s="4"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="G27" s="4">
+        <v>250</v>
+      </c>
+      <c r="H27" s="4">
+        <v>250</v>
+      </c>
+      <c r="I27" s="4">
+        <v>250</v>
+      </c>
+      <c r="J27" s="4">
+        <v>250</v>
+      </c>
       <c r="N27" s="2">
         <v>550</v>
       </c>
@@ -849,13 +1088,22 @@
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E28" s="4"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="G28" s="4">
+        <v>232</v>
+      </c>
+      <c r="H28" s="4">
+        <v>232</v>
+      </c>
+      <c r="I28" s="4">
+        <v>233</v>
+      </c>
+      <c r="J28" s="4">
+        <v>233</v>
+      </c>
       <c r="N28" s="2">
         <v>482</v>
       </c>
@@ -867,15 +1115,24 @@
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E29" s="3">
+      <c r="E29" s="5">
         <v>4000</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="G29" s="1">
+        <v>255.03</v>
+      </c>
+      <c r="H29" s="1">
+        <v>269.14</v>
+      </c>
+      <c r="I29" s="1">
+        <v>289.33999999999997</v>
+      </c>
+      <c r="J29" s="3">
+        <v>289.72000000000003</v>
+      </c>
       <c r="N29" s="1">
         <v>376.54</v>
       </c>
@@ -885,13 +1142,22 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E30" s="3"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
       <c r="N30" s="1">
         <v>0</v>
       </c>
@@ -901,13 +1167,22 @@
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E31" s="3"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="G31" s="1">
+        <v>695.06</v>
+      </c>
+      <c r="H31" s="1">
+        <v>497.3</v>
+      </c>
+      <c r="I31" s="1">
+        <v>597.4</v>
+      </c>
+      <c r="J31" s="3">
+        <v>487.18</v>
+      </c>
       <c r="N31" s="1">
         <v>1520</v>
       </c>
@@ -917,13 +1192,22 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E32" s="3"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="G32" s="1">
+        <v>326.74</v>
+      </c>
+      <c r="H32" s="1">
+        <v>344.9</v>
+      </c>
+      <c r="I32" s="1">
+        <v>365.54</v>
+      </c>
+      <c r="J32" s="3">
+        <v>365.82</v>
+      </c>
       <c r="N32" s="1">
         <v>656.18</v>
       </c>
@@ -933,13 +1217,22 @@
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E33" s="3"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="G33" s="1">
+        <v>357.68</v>
+      </c>
+      <c r="H33" s="1">
+        <v>356.81</v>
+      </c>
+      <c r="I33" s="1">
+        <v>377.38</v>
+      </c>
+      <c r="J33" s="3">
+        <v>375.92</v>
+      </c>
       <c r="N33" s="1">
         <v>676.87</v>
       </c>
@@ -949,13 +1242,22 @@
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E34" s="3"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="G34" s="1">
+        <v>2678221</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2648458</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2606950</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2606205</v>
+      </c>
       <c r="N34" s="1">
         <v>2441880</v>
       </c>
@@ -965,13 +1267,22 @@
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E35" s="3"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="G35" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="H35" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="I35" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="J35" s="3">
+        <v>960.8</v>
+      </c>
       <c r="N35" s="1">
         <v>960.7</v>
       </c>
@@ -981,13 +1292,22 @@
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E36" s="3"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="G36" s="1">
+        <v>2787.5</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2757.22</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2713.41</v>
+      </c>
+      <c r="J36" s="3">
+        <v>2712.42</v>
+      </c>
       <c r="N36" s="1">
         <v>2541.8200000000002</v>
       </c>
@@ -997,13 +1317,22 @@
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E37" s="3"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="G37" s="1">
+        <v>798</v>
+      </c>
+      <c r="H37" s="1">
+        <v>789</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="N37" s="1" t="s">
         <v>13</v>
       </c>
@@ -1013,13 +1342,22 @@
       <c r="P37" s="1"/>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E38" s="3"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="G38" s="1">
+        <v>742</v>
+      </c>
+      <c r="H38" s="1">
+        <v>734</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="N38" s="1" t="s">
         <v>14</v>
       </c>
@@ -1030,10 +1368,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E7:I7"/>
     <mergeCell ref="E9:E18"/>
     <mergeCell ref="E19:E28"/>
     <mergeCell ref="E29:E38"/>
+    <mergeCell ref="E7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1044,7 +1382,7 @@
   <dimension ref="E7:N38"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:I28"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1054,13 +1392,13 @@
   </cols>
   <sheetData>
     <row r="7" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
@@ -1080,15 +1418,21 @@
       </c>
     </row>
     <row r="9" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="G9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.5</v>
+      </c>
       <c r="M9" s="1">
         <v>2.88</v>
       </c>
@@ -1097,13 +1441,19 @@
       </c>
     </row>
     <row r="10" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E10" s="3"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
       <c r="M10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1112,13 +1462,19 @@
       </c>
     </row>
     <row r="11" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E11" s="3"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="G11" s="1">
+        <v>142.16999999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>44.58</v>
+      </c>
+      <c r="I11" s="1">
+        <v>148.46</v>
+      </c>
       <c r="M11" s="1">
         <v>1530</v>
       </c>
@@ -1127,13 +1483,19 @@
       </c>
     </row>
     <row r="12" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E12" s="3"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="G12" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.0699999999999998</v>
+      </c>
       <c r="M12" s="1">
         <v>3.73</v>
       </c>
@@ -1142,13 +1504,19 @@
       </c>
     </row>
     <row r="13" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E13" s="3"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="G13" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.25</v>
+      </c>
       <c r="M13" s="1">
         <v>4.17</v>
       </c>
@@ -1157,13 +1525,19 @@
       </c>
     </row>
     <row r="14" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E14" s="3"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="G14" s="1">
+        <v>83954</v>
+      </c>
+      <c r="H14" s="1">
+        <v>83953</v>
+      </c>
+      <c r="I14" s="1">
+        <v>83954</v>
+      </c>
       <c r="M14" s="1">
         <v>83804</v>
       </c>
@@ -1172,13 +1546,19 @@
       </c>
     </row>
     <row r="15" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E15" s="3"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="1">
+        <v>961</v>
+      </c>
+      <c r="H15" s="1">
+        <v>961</v>
+      </c>
+      <c r="I15" s="1">
+        <v>960.8</v>
+      </c>
       <c r="M15" s="1">
         <v>960.3</v>
       </c>
@@ -1187,13 +1567,19 @@
       </c>
     </row>
     <row r="16" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E16" s="3"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="G16" s="1">
+        <v>87.36</v>
+      </c>
+      <c r="H16" s="1">
+        <v>87.36</v>
+      </c>
+      <c r="I16" s="1">
+        <v>87.38</v>
+      </c>
       <c r="M16" s="1">
         <v>87.27</v>
       </c>
@@ -1202,13 +1588,19 @@
       </c>
     </row>
     <row r="17" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E17" s="3"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="M17" s="1">
         <v>3.2</v>
       </c>
@@ -1217,13 +1609,19 @@
       </c>
     </row>
     <row r="18" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E18" s="3"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="M18" s="1">
         <v>51</v>
       </c>
@@ -1232,15 +1630,21 @@
       </c>
     </row>
     <row r="19" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E19" s="4">
+      <c r="E19" s="6">
         <v>1000</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="G19" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.6</v>
+      </c>
       <c r="M19" s="2">
         <v>1030</v>
       </c>
@@ -1249,13 +1653,19 @@
       </c>
     </row>
     <row r="20" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E20" s="4"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
       <c r="M20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1264,13 +1674,19 @@
       </c>
     </row>
     <row r="21" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E21" s="4"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="G21" s="2">
+        <v>155.76</v>
+      </c>
+      <c r="H21" s="2">
+        <v>146.91999999999999</v>
+      </c>
+      <c r="I21" s="2">
+        <v>147.76</v>
+      </c>
       <c r="M21" s="2">
         <v>1370</v>
       </c>
@@ -1279,13 +1695,19 @@
       </c>
     </row>
     <row r="22" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E22" s="4"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="G22" s="2">
+        <v>2.19</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2.11</v>
+      </c>
       <c r="M22" s="2">
         <v>1220</v>
       </c>
@@ -1294,13 +1716,19 @@
       </c>
     </row>
     <row r="23" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E23" s="4"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="G23" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2.7</v>
+      </c>
       <c r="M23" s="2">
         <v>1230</v>
       </c>
@@ -1309,13 +1737,19 @@
       </c>
     </row>
     <row r="24" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E24" s="4"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="G24" s="2">
+        <v>838756</v>
+      </c>
+      <c r="H24" s="2">
+        <v>838935</v>
+      </c>
+      <c r="I24" s="2">
+        <v>838866</v>
+      </c>
       <c r="M24" s="2">
         <v>412310</v>
       </c>
@@ -1324,13 +1758,19 @@
       </c>
     </row>
     <row r="25" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E25" s="4"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="G25" s="2">
+        <v>961</v>
+      </c>
+      <c r="H25" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="I25" s="2">
+        <v>960.4</v>
+      </c>
       <c r="M25" s="2">
         <v>960.8</v>
       </c>
@@ -1339,13 +1779,19 @@
       </c>
     </row>
     <row r="26" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E26" s="4"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="G26" s="2">
+        <v>872.81</v>
+      </c>
+      <c r="H26" s="2">
+        <v>873.11</v>
+      </c>
+      <c r="I26" s="2">
+        <v>873.49</v>
+      </c>
       <c r="M26" s="2">
         <v>429.13</v>
       </c>
@@ -1354,13 +1800,19 @@
       </c>
     </row>
     <row r="27" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E27" s="4"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="M27" s="2">
         <v>16</v>
       </c>
@@ -1369,13 +1821,19 @@
       </c>
     </row>
     <row r="28" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E28" s="4"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="G28" s="2">
+        <v>263</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="M28" s="2">
         <v>252</v>
       </c>
@@ -1384,15 +1842,21 @@
       </c>
     </row>
     <row r="29" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E29" s="3">
+      <c r="E29" s="5">
         <v>4000</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="G29" s="1">
+        <v>2220</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2220</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2230</v>
+      </c>
       <c r="M29" s="1">
         <v>7210</v>
       </c>
@@ -1401,13 +1865,19 @@
       </c>
     </row>
     <row r="30" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E30" s="3"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
       <c r="M30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1416,13 +1886,19 @@
       </c>
     </row>
     <row r="31" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E31" s="3"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="G31" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3320</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2810</v>
+      </c>
       <c r="M31" s="1">
         <v>12220</v>
       </c>
@@ -1431,13 +1907,19 @@
       </c>
     </row>
     <row r="32" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E32" s="3"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="G32" s="1">
+        <v>2560</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2570</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2540</v>
+      </c>
       <c r="M32" s="1">
         <v>8460</v>
       </c>
@@ -1446,13 +1928,19 @@
       </c>
     </row>
     <row r="33" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E33" s="3"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="G33" s="1">
+        <v>2570</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2590</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2550</v>
+      </c>
       <c r="M33" s="1">
         <v>8790</v>
       </c>
@@ -1461,13 +1949,19 @@
       </c>
     </row>
     <row r="34" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E34" s="3"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="G34" s="1">
+        <v>1042660</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1044567</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1039284</v>
+      </c>
       <c r="M34" s="1">
         <v>410237</v>
       </c>
@@ -1476,13 +1970,19 @@
       </c>
     </row>
     <row r="35" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E35" s="3"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="G35" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="H35" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="I35" s="1">
+        <v>960.7</v>
+      </c>
       <c r="M35" s="1">
         <v>960.5</v>
       </c>
@@ -1491,13 +1991,19 @@
       </c>
     </row>
     <row r="36" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E36" s="3"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="G36" s="1">
+        <v>1085.3599999999999</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1087.3399999999999</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1081.81</v>
+      </c>
       <c r="M36" s="1">
         <v>427.12</v>
       </c>
@@ -1506,13 +2012,19 @@
       </c>
     </row>
     <row r="37" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E37" s="3"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="M37" s="1">
         <v>16</v>
       </c>
@@ -1521,13 +2033,19 @@
       </c>
     </row>
     <row r="38" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E38" s="3"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="M38" s="1">
         <v>250</v>
       </c>
@@ -1548,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008BA1D-A9B8-490D-8D36-2848B9455033}">
-  <dimension ref="E7:N38"/>
+  <dimension ref="E7:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1560,16 +2078,16 @@
     <col min="6" max="6" width="32.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1585,462 +2103,462 @@
       <c r="I8" s="1">
         <v>3</v>
       </c>
-      <c r="M8" s="1">
-        <v>22.59</v>
-      </c>
-      <c r="N8" s="1">
-        <v>29.51</v>
-      </c>
-    </row>
-    <row r="9" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E9" s="3">
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E9" s="5">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="M9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E10" s="3"/>
+      <c r="G9" s="1">
+        <v>3.77</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E10" s="5"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="M10" s="1">
-        <v>308.18</v>
-      </c>
-      <c r="N10" s="1">
-        <v>394.53</v>
-      </c>
-    </row>
-    <row r="11" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E11" s="3"/>
+      <c r="G10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E11" s="5"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="M11" s="1">
-        <v>37.19</v>
-      </c>
-      <c r="N11" s="1">
-        <v>45.66</v>
-      </c>
-    </row>
-    <row r="12" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E12" s="3"/>
+      <c r="G11" s="1">
+        <v>159.72999999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>150.46</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E12" s="5"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="M12" s="1">
-        <v>44.45</v>
-      </c>
-      <c r="N12" s="1">
-        <v>51.33</v>
-      </c>
-    </row>
-    <row r="13" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E13" s="3"/>
+      <c r="G12" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E13" s="5"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="M13" s="1">
-        <v>82076</v>
-      </c>
-      <c r="N13" s="1">
-        <v>81531</v>
-      </c>
-    </row>
-    <row r="14" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E14" s="3"/>
+      <c r="G13" s="1">
+        <v>5.49</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E14" s="5"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="M14" s="1">
-        <v>960.8</v>
-      </c>
-      <c r="N14" s="1">
-        <v>960.5</v>
-      </c>
-    </row>
-    <row r="15" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E15" s="3"/>
+      <c r="G14" s="1">
+        <v>83752</v>
+      </c>
+      <c r="H14" s="1">
+        <v>83769</v>
+      </c>
+      <c r="I14" s="1">
+        <v>83757</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E15" s="5"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="M15" s="1">
-        <v>85.42</v>
-      </c>
-      <c r="N15" s="1">
-        <v>84.88</v>
-      </c>
-    </row>
-    <row r="16" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E16" s="3"/>
+      <c r="G15" s="1">
+        <v>960.1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>960</v>
+      </c>
+      <c r="I15" s="1">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E16" s="5"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="M16" s="1">
-        <v>15</v>
-      </c>
-      <c r="N16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E17" s="3"/>
+      <c r="G16" s="1">
+        <v>87.23</v>
+      </c>
+      <c r="H16" s="1">
+        <v>87.26</v>
+      </c>
+      <c r="I16" s="1">
+        <v>87.25</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E17" s="5"/>
       <c r="F17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="M17" s="1">
-        <v>50</v>
-      </c>
-      <c r="N17" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E18" s="3"/>
+      <c r="G17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E18" s="5"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="M18" s="2">
-        <v>8090</v>
-      </c>
-      <c r="N18" s="2">
-        <v>8060</v>
-      </c>
-    </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E19" s="4">
+      <c r="G18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E19" s="6">
         <v>1000</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="M19" s="2">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E20" s="4"/>
+      <c r="G19" s="2">
+        <v>1990</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1990</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E20" s="6"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="M20" s="2">
-        <v>10760</v>
-      </c>
-      <c r="N20" s="2">
-        <v>10020</v>
-      </c>
-    </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E21" s="4"/>
+      <c r="G20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E21" s="6"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="M21" s="2">
-        <v>9320</v>
-      </c>
-      <c r="N21" s="2">
-        <v>9200</v>
-      </c>
-    </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E22" s="4"/>
+      <c r="G21" s="2">
+        <v>2600</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2550</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E22" s="6"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="M22" s="2">
-        <v>9340</v>
-      </c>
-      <c r="N22" s="2">
-        <v>9240</v>
-      </c>
-    </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E23" s="4"/>
+      <c r="G22" s="2">
+        <v>2310</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2300</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E23" s="6"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="M23" s="2">
-        <v>92679</v>
-      </c>
-      <c r="N23" s="2">
-        <v>92923</v>
-      </c>
-    </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E24" s="4"/>
+      <c r="G23" s="2">
+        <v>2330</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2310</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E24" s="6"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="M24" s="2">
-        <v>960.7</v>
-      </c>
-      <c r="N24" s="2">
-        <v>960.4</v>
-      </c>
-    </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E25" s="4"/>
+      <c r="G24" s="2">
+        <v>280441</v>
+      </c>
+      <c r="H24" s="2">
+        <v>280456</v>
+      </c>
+      <c r="I24" s="2">
+        <v>281428</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E25" s="6"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="M25" s="2">
-        <v>96.48</v>
-      </c>
-      <c r="N25" s="2">
-        <v>96.75</v>
-      </c>
-    </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E26" s="4"/>
+      <c r="G25" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="I25" s="2">
+        <v>960.6</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E26" s="6"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="M26" s="2">
-        <v>17</v>
-      </c>
-      <c r="N26" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E27" s="4"/>
+      <c r="G26" s="2">
+        <v>291.97000000000003</v>
+      </c>
+      <c r="H26" s="2">
+        <v>291.88</v>
+      </c>
+      <c r="I26" s="2">
+        <v>292.97000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E27" s="6"/>
       <c r="F27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="M27" s="2">
-        <v>57</v>
-      </c>
-      <c r="N27" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E28" s="4"/>
+      <c r="G27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E28" s="6"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="M28" s="1">
-        <v>35730</v>
-      </c>
-      <c r="N28" s="1">
-        <v>35760</v>
-      </c>
-    </row>
-    <row r="29" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E29" s="3">
+      <c r="G28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E29" s="5">
         <v>4000</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="M29" s="1">
-        <v>2.46</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E30" s="3"/>
+      <c r="G29" s="1">
+        <v>10820</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10920</v>
+      </c>
+      <c r="I29" s="1">
+        <v>10860</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E30" s="5"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="M30" s="1">
-        <v>41120</v>
-      </c>
-      <c r="N30" s="1">
-        <v>40960</v>
-      </c>
-    </row>
-    <row r="31" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E31" s="3"/>
+      <c r="G30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E31" s="5"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="M31" s="1">
-        <v>40410</v>
-      </c>
-      <c r="N31" s="1">
-        <v>40530</v>
-      </c>
-    </row>
-    <row r="32" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E32" s="3"/>
+      <c r="G31" s="1">
+        <v>12600</v>
+      </c>
+      <c r="H31" s="1">
+        <v>14080</v>
+      </c>
+      <c r="I31" s="1">
+        <v>12740</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E32" s="5"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="M32" s="1">
-        <v>40430</v>
-      </c>
-      <c r="N32" s="1">
-        <v>40590</v>
-      </c>
-    </row>
-    <row r="33" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E33" s="3"/>
+      <c r="G32" s="1">
+        <v>12400</v>
+      </c>
+      <c r="H32" s="1">
+        <v>12510</v>
+      </c>
+      <c r="I32" s="1">
+        <v>12420</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E33" s="5"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="M33" s="1">
-        <v>92594</v>
-      </c>
-      <c r="N33" s="1">
-        <v>92505</v>
-      </c>
-    </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E34" s="3"/>
+      <c r="G33" s="1">
+        <v>12420</v>
+      </c>
+      <c r="H33" s="1">
+        <v>13180</v>
+      </c>
+      <c r="I33" s="1">
+        <v>12450</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E34" s="5"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="M34" s="1">
-        <v>961</v>
-      </c>
-      <c r="N34" s="1">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="35" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E35" s="3"/>
+      <c r="G34" s="1">
+        <v>285420</v>
+      </c>
+      <c r="H34" s="1">
+        <v>282859</v>
+      </c>
+      <c r="I34" s="1">
+        <v>284371</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E35" s="5"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="M35" s="1">
-        <v>96.36</v>
-      </c>
-      <c r="N35" s="1">
-        <v>96.26</v>
-      </c>
-    </row>
-    <row r="36" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E36" s="3"/>
+      <c r="G35" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="H35" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="I35" s="1">
+        <v>960.9</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E36" s="5"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="M36" s="1">
-        <v>17</v>
-      </c>
-      <c r="N36" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E37" s="3"/>
+      <c r="G36" s="1">
+        <v>297.07</v>
+      </c>
+      <c r="H36" s="1">
+        <v>294.44</v>
+      </c>
+      <c r="I36" s="1">
+        <v>295.95</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E37" s="5"/>
       <c r="F37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="M37" s="1">
-        <v>57</v>
-      </c>
-      <c r="N37" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E38" s="3"/>
+      <c r="G37" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E38" s="5"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="G38" s="1">
+        <v>89</v>
+      </c>
+      <c r="H38" s="1">
+        <v>89</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Wyniki 3/S1-GraphQL — jedno pole.xlsx
+++ b/Wyniki 3/S1-GraphQL — jedno pole.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C4644-F51A-40B6-B264-D8525F0CB85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450F4D1A-2C4C-4DB2-9984-3750280CE411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 rekord" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="51">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>722MB</t>
+  </si>
+  <si>
+    <t>4,5s</t>
+  </si>
+  <si>
+    <t>200ms</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
   <dimension ref="E7:P38"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1132,6 +1138,9 @@
       </c>
       <c r="J29" s="3">
         <v>289.72000000000003</v>
+      </c>
+      <c r="L29" t="s">
+        <v>50</v>
       </c>
       <c r="N29" s="1">
         <v>376.54</v>
@@ -1381,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4FD128-804F-4FC8-966B-DED231E7146F}">
   <dimension ref="E7:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2066,10 +2075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008BA1D-A9B8-490D-8D36-2848B9455033}">
-  <dimension ref="E7:I38"/>
+  <dimension ref="E7:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2226,7 +2235,7 @@
         <v>87.25</v>
       </c>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E17" s="5"/>
       <c r="F17" s="1" t="s">
         <v>17</v>
@@ -2241,7 +2250,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E18" s="5"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -2256,7 +2265,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E19" s="6">
         <v>1000</v>
       </c>
@@ -2273,7 +2282,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E20" s="6"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
@@ -2288,7 +2297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E21" s="6"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
@@ -2303,7 +2312,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E22" s="6"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
@@ -2318,7 +2327,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E23" s="6"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
@@ -2333,7 +2342,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E24" s="6"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -2348,7 +2357,7 @@
         <v>281428</v>
       </c>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E25" s="6"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
@@ -2363,7 +2372,7 @@
         <v>960.6</v>
       </c>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E26" s="6"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
@@ -2378,7 +2387,7 @@
         <v>292.97000000000003</v>
       </c>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E27" s="6"/>
       <c r="F27" s="2" t="s">
         <v>17</v>
@@ -2393,7 +2402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E28" s="6"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -2408,7 +2417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E29" s="5">
         <v>4000</v>
       </c>
@@ -2424,8 +2433,11 @@
       <c r="I29" s="1">
         <v>10860</v>
       </c>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="K29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E30" s="5"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
@@ -2440,7 +2452,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E31" s="5"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
@@ -2455,7 +2467,7 @@
         <v>12740</v>
       </c>
     </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E32" s="5"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
